--- a/Submit/Team_10_Week_12_181128_The_Veil/Music/(UpToDate) Stuart Audio Asset List.xlsx
+++ b/Submit/Team_10_Week_12_181128_The_Veil/Music/(UpToDate) Stuart Audio Asset List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="128">
   <si>
     <t>NAME</t>
   </si>
@@ -413,6 +413,24 @@
   </si>
   <si>
     <t>To be layered behind the 3 plane soundtracks, in order to phase in between planes with the same functionality (avoids more programming)</t>
+  </si>
+  <si>
+    <t>Text box appears</t>
+  </si>
+  <si>
+    <t>Ogre Falls</t>
+  </si>
+  <si>
+    <t>Raven jump Landing</t>
+  </si>
+  <si>
+    <t>Signals to player for attention</t>
+  </si>
+  <si>
+    <t>warns player</t>
+  </si>
+  <si>
+    <t>Situates place in Space</t>
   </si>
 </sst>
 </file>
@@ -828,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,11 +1532,11 @@
       <c r="D26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>36</v>
+      <c r="E26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>36</v>
@@ -1826,11 +1844,11 @@
       <c r="D38" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>36</v>
+      <c r="E38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>36</v>
@@ -1846,11 +1864,11 @@
       <c r="D39" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>36</v>
+      <c r="E39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>36</v>
@@ -1866,11 +1884,11 @@
       <c r="D40" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>36</v>
+      <c r="E40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>36</v>
@@ -1886,11 +1904,11 @@
       <c r="D41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>36</v>
+      <c r="E41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>36</v>
@@ -1906,11 +1924,11 @@
       <c r="D42" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>36</v>
+      <c r="E42" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>36</v>
@@ -1937,6 +1955,57 @@
       </c>
       <c r="I43" s="4" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
